--- a/data/trans_dic/P74B-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P74B-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,05; 12,9</t>
+          <t>3,8; 13,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,48; 15,04</t>
+          <t>4,71; 15,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,63; 22,11</t>
+          <t>9,25; 21,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>66,3; 96,0</t>
+          <t>63,76; 95,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>34,88; 67,52</t>
+          <t>34,09; 68,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>39,28; 68,93</t>
+          <t>38,41; 69,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,93; 23,39</t>
+          <t>12,0; 22,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,41; 25,43</t>
+          <t>12,38; 24,64</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,53; 31,75</t>
+          <t>18,79; 32,39</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,74; 11,35</t>
+          <t>2,99; 11,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,28; 18,75</t>
+          <t>6,94; 18,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,18; 20,98</t>
+          <t>9,55; 21,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>42,34; 89,57</t>
+          <t>43,79; 89,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>40,28; 71,09</t>
+          <t>40,65; 71,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,28; 59,86</t>
+          <t>24,67; 58,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,02; 19,93</t>
+          <t>9,29; 19,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,43; 28,58</t>
+          <t>15,62; 27,86</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,77; 26,39</t>
+          <t>14,56; 26,27</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,13; 6,61</t>
+          <t>2,13; 6,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,39; 18,15</t>
+          <t>9,18; 17,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,84; 17,15</t>
+          <t>8,9; 17,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>60,92; 91,21</t>
+          <t>63,12; 92,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>51,73; 75,92</t>
+          <t>52,31; 76,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>52,81; 81,32</t>
+          <t>52,28; 81,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,61; 14,33</t>
+          <t>7,57; 14,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,54; 26,64</t>
+          <t>17,43; 26,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,35; 26,15</t>
+          <t>16,32; 26,21</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,12; 11,56</t>
+          <t>7,07; 11,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,09; 15,11</t>
+          <t>8,97; 14,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,93; 13,46</t>
+          <t>8,33; 13,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>66,86; 83,37</t>
+          <t>67,28; 83,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>40,52; 57,44</t>
+          <t>41,49; 57,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>45,88; 62,42</t>
+          <t>45,57; 61,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,46; 22,11</t>
+          <t>16,49; 21,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,64; 23,88</t>
+          <t>17,3; 23,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,01; 23,86</t>
+          <t>17,68; 24,02</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,52; 13,79</t>
+          <t>4,45; 13,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,24; 23,17</t>
+          <t>12,45; 23,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,92; 18,36</t>
+          <t>9,89; 18,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>65,88; 82,41</t>
+          <t>66,54; 82,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>54,82; 66,87</t>
+          <t>54,53; 66,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>44,43; 57,45</t>
+          <t>45,18; 58,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>30,12; 41,43</t>
+          <t>29,89; 41,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>37,79; 47,33</t>
+          <t>37,04; 47,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>28,01; 36,27</t>
+          <t>27,62; 36,26</t>
         </is>
       </c>
     </row>
@@ -1250,32 +1251,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>85,1; 92,05</t>
+          <t>84,82; 92,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>82,21; 89,86</t>
+          <t>82,39; 89,86</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>81,05; 89,14</t>
+          <t>81,24; 88,81</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>85,0; 92,37</t>
+          <t>85,17; 92,35</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>82,09; 89,6</t>
+          <t>82,41; 89,91</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>79,07; 87,54</t>
+          <t>79,52; 87,51</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,14; 8,86</t>
+          <t>6,15; 8,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,75; 14,57</t>
+          <t>10,81; 14,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,77; 14,34</t>
+          <t>10,8; 14,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>79,55; 85,86</t>
+          <t>79,79; 85,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>64,43; 71,11</t>
+          <t>64,8; 71,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>62,3; 69,33</t>
+          <t>62,41; 68,97</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>28,29; 32,54</t>
+          <t>28,32; 32,15</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>32,55; 36,77</t>
+          <t>32,72; 36,81</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>31,87; 36,04</t>
+          <t>31,68; 35,92</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que su pareja percibe algún tipo de pensión</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>12566</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>13945</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>19367</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>20754</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>21709</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>23370</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>33320</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>35654</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>42737</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>6677; 22994</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7382; 23875</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>12037; 28406</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>15726; 23664</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>14449; 28903</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>16523; 29886</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>24036; 45578</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>24649; 49045</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>32547; 56095</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>9889</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>19652</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>22474</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>14383</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>25830</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>17576</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>24271</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>45482</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>40049</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>4584; 17881</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>11641; 30640</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>15015; 33359</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>8855; 18192</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>18545; 32712</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>10350; 24634</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>16139; 34673</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>33307; 59422</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>28996; 52315</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>11331</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>41542</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>34085</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>22332</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>41908</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>31404</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>33664</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>83450</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>65489</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6145; 19137</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>29195; 56154</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>23823; 45539</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>17731; 25976</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>34090; 49609</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>24378; 38030</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>23975; 45740</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>66811; 101592</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>51280; 82381</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>58234</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>62170</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>57282</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>84753</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>79177</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>87679</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>142987</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>141347</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>144961</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>45053; 73116</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>47397; 77623</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>44551; 72988</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>74900; 92960</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>66432; 92384</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>73860; 99662</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>123440; 163603</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>119113; 163331</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>123275; 167430</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>12350</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>35555</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>35876</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>81319</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>160843</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>123553</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>93669</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>196398</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>159430</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>6959; 20532</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>25287; 48003</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>25769; 49390</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>72036; 89673</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>143799; 176329</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>108151; 138850</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>79084; 109019</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>172929; 219871</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>138074; 181243</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1815</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>283872</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>291992</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>304935</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>285687</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>291992</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>304935</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>782; 1815</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 964</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1635</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>270996; 293980</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>278075; 303287</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>290793; 317894</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>273656; 296731</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>279165; 304578</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>289545; 318640</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>517</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>722</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>686</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>106185</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>172865</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>169085</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>507414</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>621459</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>588516</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>613599</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>794324</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>757601</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>86909; 126286</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>148641; 200744</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>146527; 195771</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>488369; 524803</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>592607; 652211</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>556055; 614557</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>573382; 650946</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>749234; 842971</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>711984; 807434</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P74B-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P74B-Clase-trans_dic.xlsx
@@ -1173,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2354,7 +2354,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
